--- a/FurryMine/Assets/Resources/Datas/PriceTable.xlsx
+++ b/FurryMine/Assets/Resources/Datas/PriceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739BE6F-190F-471A-AF5E-A3D3E9C1F2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F1285-D9D1-4484-862E-61314C84E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{1FF063A3-7C12-492E-9F85-30D760DAA9EF}"/>
   </bookViews>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FCA373-049B-4EDF-B0F9-9A5C2C54CC80}">
   <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A990" workbookViewId="0">
-      <selection activeCell="I1010" sqref="I1010"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="H504" sqref="H504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13500,7 +13500,7 @@
         <v>501</v>
       </c>
       <c r="H502" s="1">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
@@ -13526,7 +13526,7 @@
         <v>502</v>
       </c>
       <c r="H503" s="1">
-        <v>502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
@@ -13552,7 +13552,7 @@
         <v>503</v>
       </c>
       <c r="H504" s="1">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
@@ -13578,7 +13578,7 @@
         <v>504</v>
       </c>
       <c r="H505" s="1">
-        <v>504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
@@ -13604,7 +13604,7 @@
         <v>505</v>
       </c>
       <c r="H506" s="1">
-        <v>505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
@@ -13630,7 +13630,7 @@
         <v>506</v>
       </c>
       <c r="H507" s="1">
-        <v>506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
@@ -13656,7 +13656,7 @@
         <v>507</v>
       </c>
       <c r="H508" s="1">
-        <v>507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -13682,7 +13682,7 @@
         <v>508</v>
       </c>
       <c r="H509" s="1">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -13708,7 +13708,7 @@
         <v>509</v>
       </c>
       <c r="H510" s="1">
-        <v>509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
@@ -13734,7 +13734,7 @@
         <v>510</v>
       </c>
       <c r="H511" s="1">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
@@ -13760,7 +13760,7 @@
         <v>511</v>
       </c>
       <c r="H512" s="1">
-        <v>511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.3">
@@ -13786,7 +13786,7 @@
         <v>512</v>
       </c>
       <c r="H513" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
@@ -13812,7 +13812,7 @@
         <v>513</v>
       </c>
       <c r="H514" s="1">
-        <v>513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
@@ -13838,7 +13838,7 @@
         <v>514</v>
       </c>
       <c r="H515" s="1">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
@@ -13864,7 +13864,7 @@
         <v>515</v>
       </c>
       <c r="H516" s="1">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.3">
@@ -13890,7 +13890,7 @@
         <v>516</v>
       </c>
       <c r="H517" s="1">
-        <v>516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.3">
@@ -13916,7 +13916,7 @@
         <v>517</v>
       </c>
       <c r="H518" s="1">
-        <v>517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
@@ -13942,7 +13942,7 @@
         <v>518</v>
       </c>
       <c r="H519" s="1">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
@@ -13968,7 +13968,7 @@
         <v>519</v>
       </c>
       <c r="H520" s="1">
-        <v>519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
@@ -13994,7 +13994,7 @@
         <v>520</v>
       </c>
       <c r="H521" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.3">
@@ -14020,7 +14020,7 @@
         <v>521</v>
       </c>
       <c r="H522" s="1">
-        <v>521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.3">
@@ -14046,7 +14046,7 @@
         <v>522</v>
       </c>
       <c r="H523" s="1">
-        <v>522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
@@ -14072,7 +14072,7 @@
         <v>523</v>
       </c>
       <c r="H524" s="1">
-        <v>523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.3">
@@ -14098,7 +14098,7 @@
         <v>524</v>
       </c>
       <c r="H525" s="1">
-        <v>524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.3">
@@ -14124,7 +14124,7 @@
         <v>525</v>
       </c>
       <c r="H526" s="1">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.3">
@@ -14150,7 +14150,7 @@
         <v>526</v>
       </c>
       <c r="H527" s="1">
-        <v>526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.3">
@@ -14176,7 +14176,7 @@
         <v>527</v>
       </c>
       <c r="H528" s="1">
-        <v>527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.3">
@@ -14202,7 +14202,7 @@
         <v>528</v>
       </c>
       <c r="H529" s="1">
-        <v>528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.3">
@@ -14228,7 +14228,7 @@
         <v>529</v>
       </c>
       <c r="H530" s="1">
-        <v>529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.3">
@@ -14254,7 +14254,7 @@
         <v>530</v>
       </c>
       <c r="H531" s="1">
-        <v>530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.3">
@@ -14280,7 +14280,7 @@
         <v>531</v>
       </c>
       <c r="H532" s="1">
-        <v>531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
@@ -14306,7 +14306,7 @@
         <v>532</v>
       </c>
       <c r="H533" s="1">
-        <v>532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
@@ -14332,7 +14332,7 @@
         <v>533</v>
       </c>
       <c r="H534" s="1">
-        <v>533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.3">
@@ -14358,7 +14358,7 @@
         <v>534</v>
       </c>
       <c r="H535" s="1">
-        <v>534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
@@ -14384,7 +14384,7 @@
         <v>535</v>
       </c>
       <c r="H536" s="1">
-        <v>535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.3">
@@ -14410,7 +14410,7 @@
         <v>536</v>
       </c>
       <c r="H537" s="1">
-        <v>536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
@@ -14436,7 +14436,7 @@
         <v>537</v>
       </c>
       <c r="H538" s="1">
-        <v>537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
@@ -14462,7 +14462,7 @@
         <v>538</v>
       </c>
       <c r="H539" s="1">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
@@ -14488,7 +14488,7 @@
         <v>539</v>
       </c>
       <c r="H540" s="1">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
@@ -14514,7 +14514,7 @@
         <v>540</v>
       </c>
       <c r="H541" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
@@ -14540,7 +14540,7 @@
         <v>541</v>
       </c>
       <c r="H542" s="1">
-        <v>541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
         <v>542</v>
       </c>
       <c r="H543" s="1">
-        <v>542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
@@ -14592,7 +14592,7 @@
         <v>543</v>
       </c>
       <c r="H544" s="1">
-        <v>543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.3">
@@ -14618,7 +14618,7 @@
         <v>544</v>
       </c>
       <c r="H545" s="1">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.3">
@@ -14644,7 +14644,7 @@
         <v>545</v>
       </c>
       <c r="H546" s="1">
-        <v>545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.3">
@@ -14670,7 +14670,7 @@
         <v>546</v>
       </c>
       <c r="H547" s="1">
-        <v>546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
@@ -14696,7 +14696,7 @@
         <v>547</v>
       </c>
       <c r="H548" s="1">
-        <v>547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.3">
@@ -14722,7 +14722,7 @@
         <v>548</v>
       </c>
       <c r="H549" s="1">
-        <v>548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.3">
@@ -14748,7 +14748,7 @@
         <v>549</v>
       </c>
       <c r="H550" s="1">
-        <v>549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.3">
@@ -14774,7 +14774,7 @@
         <v>550</v>
       </c>
       <c r="H551" s="1">
-        <v>550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.3">
@@ -14800,7 +14800,7 @@
         <v>551</v>
       </c>
       <c r="H552" s="1">
-        <v>551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.3">
@@ -14826,7 +14826,7 @@
         <v>552</v>
       </c>
       <c r="H553" s="1">
-        <v>552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.3">
@@ -14852,7 +14852,7 @@
         <v>553</v>
       </c>
       <c r="H554" s="1">
-        <v>553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.3">
@@ -14878,7 +14878,7 @@
         <v>554</v>
       </c>
       <c r="H555" s="1">
-        <v>554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.3">
@@ -14904,7 +14904,7 @@
         <v>555</v>
       </c>
       <c r="H556" s="1">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>556</v>
       </c>
       <c r="H557" s="1">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
@@ -14956,7 +14956,7 @@
         <v>557</v>
       </c>
       <c r="H558" s="1">
-        <v>557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
@@ -14982,7 +14982,7 @@
         <v>558</v>
       </c>
       <c r="H559" s="1">
-        <v>558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.3">
@@ -15008,7 +15008,7 @@
         <v>559</v>
       </c>
       <c r="H560" s="1">
-        <v>559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.3">
@@ -15034,7 +15034,7 @@
         <v>560</v>
       </c>
       <c r="H561" s="1">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.3">
@@ -15060,7 +15060,7 @@
         <v>561</v>
       </c>
       <c r="H562" s="1">
-        <v>561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.3">
@@ -15086,7 +15086,7 @@
         <v>562</v>
       </c>
       <c r="H563" s="1">
-        <v>562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.3">
@@ -15112,7 +15112,7 @@
         <v>563</v>
       </c>
       <c r="H564" s="1">
-        <v>563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.3">
@@ -15138,7 +15138,7 @@
         <v>564</v>
       </c>
       <c r="H565" s="1">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.3">
@@ -15164,7 +15164,7 @@
         <v>565</v>
       </c>
       <c r="H566" s="1">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.3">
@@ -15190,7 +15190,7 @@
         <v>566</v>
       </c>
       <c r="H567" s="1">
-        <v>566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.3">
@@ -15216,7 +15216,7 @@
         <v>567</v>
       </c>
       <c r="H568" s="1">
-        <v>567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.3">
@@ -15242,7 +15242,7 @@
         <v>568</v>
       </c>
       <c r="H569" s="1">
-        <v>568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.3">
@@ -15268,7 +15268,7 @@
         <v>569</v>
       </c>
       <c r="H570" s="1">
-        <v>569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.3">
@@ -15294,7 +15294,7 @@
         <v>570</v>
       </c>
       <c r="H571" s="1">
-        <v>570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.3">
@@ -15320,7 +15320,7 @@
         <v>571</v>
       </c>
       <c r="H572" s="1">
-        <v>571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.3">
@@ -15346,7 +15346,7 @@
         <v>572</v>
       </c>
       <c r="H573" s="1">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.3">
@@ -15372,7 +15372,7 @@
         <v>573</v>
       </c>
       <c r="H574" s="1">
-        <v>573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.3">
@@ -15398,7 +15398,7 @@
         <v>574</v>
       </c>
       <c r="H575" s="1">
-        <v>574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.3">
@@ -15424,7 +15424,7 @@
         <v>575</v>
       </c>
       <c r="H576" s="1">
-        <v>575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.3">
@@ -15450,7 +15450,7 @@
         <v>576</v>
       </c>
       <c r="H577" s="1">
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.3">
@@ -15476,7 +15476,7 @@
         <v>577</v>
       </c>
       <c r="H578" s="1">
-        <v>577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.3">
@@ -15502,7 +15502,7 @@
         <v>578</v>
       </c>
       <c r="H579" s="1">
-        <v>578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.3">
@@ -15528,7 +15528,7 @@
         <v>579</v>
       </c>
       <c r="H580" s="1">
-        <v>579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.3">
@@ -15554,7 +15554,7 @@
         <v>580</v>
       </c>
       <c r="H581" s="1">
-        <v>580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
@@ -15580,7 +15580,7 @@
         <v>581</v>
       </c>
       <c r="H582" s="1">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.3">
@@ -15606,7 +15606,7 @@
         <v>582</v>
       </c>
       <c r="H583" s="1">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.3">
@@ -15632,7 +15632,7 @@
         <v>583</v>
       </c>
       <c r="H584" s="1">
-        <v>583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.3">
@@ -15658,7 +15658,7 @@
         <v>584</v>
       </c>
       <c r="H585" s="1">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.3">
@@ -15684,7 +15684,7 @@
         <v>585</v>
       </c>
       <c r="H586" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.3">
@@ -15710,7 +15710,7 @@
         <v>586</v>
       </c>
       <c r="H587" s="1">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
@@ -15736,7 +15736,7 @@
         <v>587</v>
       </c>
       <c r="H588" s="1">
-        <v>587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.3">
@@ -15762,7 +15762,7 @@
         <v>588</v>
       </c>
       <c r="H589" s="1">
-        <v>588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.3">
@@ -15788,7 +15788,7 @@
         <v>589</v>
       </c>
       <c r="H590" s="1">
-        <v>589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.3">
@@ -15814,7 +15814,7 @@
         <v>590</v>
       </c>
       <c r="H591" s="1">
-        <v>590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.3">
@@ -15840,7 +15840,7 @@
         <v>591</v>
       </c>
       <c r="H592" s="1">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.3">
@@ -15866,7 +15866,7 @@
         <v>592</v>
       </c>
       <c r="H593" s="1">
-        <v>592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.3">
@@ -15892,7 +15892,7 @@
         <v>593</v>
       </c>
       <c r="H594" s="1">
-        <v>593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.3">
@@ -15918,7 +15918,7 @@
         <v>594</v>
       </c>
       <c r="H595" s="1">
-        <v>594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.3">
@@ -15944,7 +15944,7 @@
         <v>595</v>
       </c>
       <c r="H596" s="1">
-        <v>595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.3">
@@ -15970,7 +15970,7 @@
         <v>596</v>
       </c>
       <c r="H597" s="1">
-        <v>596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.3">
@@ -15996,7 +15996,7 @@
         <v>597</v>
       </c>
       <c r="H598" s="1">
-        <v>597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
@@ -16022,7 +16022,7 @@
         <v>598</v>
       </c>
       <c r="H599" s="1">
-        <v>598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.3">
@@ -16048,7 +16048,7 @@
         <v>599</v>
       </c>
       <c r="H600" s="1">
-        <v>599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.3">
@@ -16074,7 +16074,7 @@
         <v>600</v>
       </c>
       <c r="H601" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.3">
@@ -16100,7 +16100,7 @@
         <v>601</v>
       </c>
       <c r="H602" s="1">
-        <v>601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.3">
@@ -16126,7 +16126,7 @@
         <v>602</v>
       </c>
       <c r="H603" s="1">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.3">
@@ -16152,7 +16152,7 @@
         <v>603</v>
       </c>
       <c r="H604" s="1">
-        <v>603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
@@ -16178,7 +16178,7 @@
         <v>604</v>
       </c>
       <c r="H605" s="1">
-        <v>604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.3">
@@ -16204,7 +16204,7 @@
         <v>605</v>
       </c>
       <c r="H606" s="1">
-        <v>605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.3">
@@ -16230,7 +16230,7 @@
         <v>606</v>
       </c>
       <c r="H607" s="1">
-        <v>606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.3">
@@ -16256,7 +16256,7 @@
         <v>607</v>
       </c>
       <c r="H608" s="1">
-        <v>607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.3">
@@ -16282,7 +16282,7 @@
         <v>608</v>
       </c>
       <c r="H609" s="1">
-        <v>608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.3">
@@ -16308,7 +16308,7 @@
         <v>609</v>
       </c>
       <c r="H610" s="1">
-        <v>609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.3">
@@ -16334,7 +16334,7 @@
         <v>610</v>
       </c>
       <c r="H611" s="1">
-        <v>610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.3">
@@ -16360,7 +16360,7 @@
         <v>611</v>
       </c>
       <c r="H612" s="1">
-        <v>611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.3">
@@ -16386,7 +16386,7 @@
         <v>612</v>
       </c>
       <c r="H613" s="1">
-        <v>612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.3">
@@ -16412,7 +16412,7 @@
         <v>613</v>
       </c>
       <c r="H614" s="1">
-        <v>613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.3">
@@ -16438,7 +16438,7 @@
         <v>614</v>
       </c>
       <c r="H615" s="1">
-        <v>614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.3">
@@ -16464,7 +16464,7 @@
         <v>615</v>
       </c>
       <c r="H616" s="1">
-        <v>615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.3">
@@ -16490,7 +16490,7 @@
         <v>616</v>
       </c>
       <c r="H617" s="1">
-        <v>616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -16516,7 +16516,7 @@
         <v>617</v>
       </c>
       <c r="H618" s="1">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.3">
@@ -16542,7 +16542,7 @@
         <v>618</v>
       </c>
       <c r="H619" s="1">
-        <v>618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.3">
@@ -16568,7 +16568,7 @@
         <v>619</v>
       </c>
       <c r="H620" s="1">
-        <v>619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.3">
@@ -16594,7 +16594,7 @@
         <v>620</v>
       </c>
       <c r="H621" s="1">
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.3">
@@ -16620,7 +16620,7 @@
         <v>621</v>
       </c>
       <c r="H622" s="1">
-        <v>621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.3">
@@ -16646,7 +16646,7 @@
         <v>622</v>
       </c>
       <c r="H623" s="1">
-        <v>622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.3">
@@ -16672,7 +16672,7 @@
         <v>623</v>
       </c>
       <c r="H624" s="1">
-        <v>623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.3">
@@ -16698,7 +16698,7 @@
         <v>624</v>
       </c>
       <c r="H625" s="1">
-        <v>624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.3">
@@ -16724,7 +16724,7 @@
         <v>625</v>
       </c>
       <c r="H626" s="1">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.3">
@@ -16750,7 +16750,7 @@
         <v>626</v>
       </c>
       <c r="H627" s="1">
-        <v>626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.3">
@@ -16776,7 +16776,7 @@
         <v>627</v>
       </c>
       <c r="H628" s="1">
-        <v>627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.3">
@@ -16802,7 +16802,7 @@
         <v>628</v>
       </c>
       <c r="H629" s="1">
-        <v>628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.3">
@@ -16828,7 +16828,7 @@
         <v>629</v>
       </c>
       <c r="H630" s="1">
-        <v>629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.3">
@@ -16854,7 +16854,7 @@
         <v>630</v>
       </c>
       <c r="H631" s="1">
-        <v>630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.3">
@@ -16880,7 +16880,7 @@
         <v>631</v>
       </c>
       <c r="H632" s="1">
-        <v>631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.3">
@@ -16906,7 +16906,7 @@
         <v>632</v>
       </c>
       <c r="H633" s="1">
-        <v>632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.3">
@@ -16932,7 +16932,7 @@
         <v>633</v>
       </c>
       <c r="H634" s="1">
-        <v>633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.3">
@@ -16958,7 +16958,7 @@
         <v>634</v>
       </c>
       <c r="H635" s="1">
-        <v>634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.3">
@@ -16984,7 +16984,7 @@
         <v>635</v>
       </c>
       <c r="H636" s="1">
-        <v>635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.3">
@@ -17010,7 +17010,7 @@
         <v>636</v>
       </c>
       <c r="H637" s="1">
-        <v>636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.3">
@@ -17036,7 +17036,7 @@
         <v>637</v>
       </c>
       <c r="H638" s="1">
-        <v>637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.3">
@@ -17062,7 +17062,7 @@
         <v>638</v>
       </c>
       <c r="H639" s="1">
-        <v>638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.3">
@@ -17088,7 +17088,7 @@
         <v>639</v>
       </c>
       <c r="H640" s="1">
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.3">
@@ -17114,7 +17114,7 @@
         <v>640</v>
       </c>
       <c r="H641" s="1">
-        <v>640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.3">
@@ -17140,7 +17140,7 @@
         <v>641</v>
       </c>
       <c r="H642" s="1">
-        <v>641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.3">
@@ -17166,7 +17166,7 @@
         <v>642</v>
       </c>
       <c r="H643" s="1">
-        <v>642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.3">
@@ -17192,7 +17192,7 @@
         <v>643</v>
       </c>
       <c r="H644" s="1">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
@@ -17218,7 +17218,7 @@
         <v>644</v>
       </c>
       <c r="H645" s="1">
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.3">
@@ -17244,7 +17244,7 @@
         <v>645</v>
       </c>
       <c r="H646" s="1">
-        <v>645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.3">
@@ -17270,7 +17270,7 @@
         <v>646</v>
       </c>
       <c r="H647" s="1">
-        <v>646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.3">
@@ -17296,7 +17296,7 @@
         <v>647</v>
       </c>
       <c r="H648" s="1">
-        <v>647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.3">
@@ -17322,7 +17322,7 @@
         <v>648</v>
       </c>
       <c r="H649" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.3">
@@ -17348,7 +17348,7 @@
         <v>649</v>
       </c>
       <c r="H650" s="1">
-        <v>649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.3">
@@ -17374,7 +17374,7 @@
         <v>650</v>
       </c>
       <c r="H651" s="1">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.3">
@@ -17400,7 +17400,7 @@
         <v>651</v>
       </c>
       <c r="H652" s="1">
-        <v>651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.3">
@@ -17426,7 +17426,7 @@
         <v>652</v>
       </c>
       <c r="H653" s="1">
-        <v>652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.3">
@@ -17452,7 +17452,7 @@
         <v>653</v>
       </c>
       <c r="H654" s="1">
-        <v>653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.3">
@@ -17478,7 +17478,7 @@
         <v>654</v>
       </c>
       <c r="H655" s="1">
-        <v>654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.3">
@@ -17504,7 +17504,7 @@
         <v>655</v>
       </c>
       <c r="H656" s="1">
-        <v>655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.3">
@@ -17530,7 +17530,7 @@
         <v>656</v>
       </c>
       <c r="H657" s="1">
-        <v>656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
@@ -17556,7 +17556,7 @@
         <v>657</v>
       </c>
       <c r="H658" s="1">
-        <v>657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.3">
@@ -17582,7 +17582,7 @@
         <v>658</v>
       </c>
       <c r="H659" s="1">
-        <v>658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.3">
@@ -17608,7 +17608,7 @@
         <v>659</v>
       </c>
       <c r="H660" s="1">
-        <v>659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.3">
@@ -17634,7 +17634,7 @@
         <v>660</v>
       </c>
       <c r="H661" s="1">
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.3">
@@ -17660,7 +17660,7 @@
         <v>661</v>
       </c>
       <c r="H662" s="1">
-        <v>661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.3">
@@ -17686,7 +17686,7 @@
         <v>662</v>
       </c>
       <c r="H663" s="1">
-        <v>662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.3">
@@ -17712,7 +17712,7 @@
         <v>663</v>
       </c>
       <c r="H664" s="1">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
@@ -17738,7 +17738,7 @@
         <v>664</v>
       </c>
       <c r="H665" s="1">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
@@ -17764,7 +17764,7 @@
         <v>665</v>
       </c>
       <c r="H666" s="1">
-        <v>665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
@@ -17790,7 +17790,7 @@
         <v>666</v>
       </c>
       <c r="H667" s="1">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
@@ -17816,7 +17816,7 @@
         <v>667</v>
       </c>
       <c r="H668" s="1">
-        <v>667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.3">
@@ -17842,7 +17842,7 @@
         <v>668</v>
       </c>
       <c r="H669" s="1">
-        <v>668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.3">
@@ -17868,7 +17868,7 @@
         <v>669</v>
       </c>
       <c r="H670" s="1">
-        <v>669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.3">
@@ -17894,7 +17894,7 @@
         <v>670</v>
       </c>
       <c r="H671" s="1">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.3">
@@ -17920,7 +17920,7 @@
         <v>671</v>
       </c>
       <c r="H672" s="1">
-        <v>671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.3">
@@ -17946,7 +17946,7 @@
         <v>672</v>
       </c>
       <c r="H673" s="1">
-        <v>672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.3">
@@ -17972,7 +17972,7 @@
         <v>673</v>
       </c>
       <c r="H674" s="1">
-        <v>673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.3">
@@ -17998,7 +17998,7 @@
         <v>674</v>
       </c>
       <c r="H675" s="1">
-        <v>674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.3">
@@ -18024,7 +18024,7 @@
         <v>675</v>
       </c>
       <c r="H676" s="1">
-        <v>675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.3">
@@ -18050,7 +18050,7 @@
         <v>676</v>
       </c>
       <c r="H677" s="1">
-        <v>676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.3">
@@ -18076,7 +18076,7 @@
         <v>677</v>
       </c>
       <c r="H678" s="1">
-        <v>677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.3">
@@ -18102,7 +18102,7 @@
         <v>678</v>
       </c>
       <c r="H679" s="1">
-        <v>678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.3">
@@ -18128,7 +18128,7 @@
         <v>679</v>
       </c>
       <c r="H680" s="1">
-        <v>679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.3">
@@ -18154,7 +18154,7 @@
         <v>680</v>
       </c>
       <c r="H681" s="1">
-        <v>680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.3">
@@ -18180,7 +18180,7 @@
         <v>681</v>
       </c>
       <c r="H682" s="1">
-        <v>681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.3">
@@ -18206,7 +18206,7 @@
         <v>682</v>
       </c>
       <c r="H683" s="1">
-        <v>682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.3">
@@ -18232,7 +18232,7 @@
         <v>683</v>
       </c>
       <c r="H684" s="1">
-        <v>683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.3">
@@ -18258,7 +18258,7 @@
         <v>684</v>
       </c>
       <c r="H685" s="1">
-        <v>684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.3">
@@ -18284,7 +18284,7 @@
         <v>685</v>
       </c>
       <c r="H686" s="1">
-        <v>685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.3">
@@ -18310,7 +18310,7 @@
         <v>686</v>
       </c>
       <c r="H687" s="1">
-        <v>686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.3">
@@ -18336,7 +18336,7 @@
         <v>687</v>
       </c>
       <c r="H688" s="1">
-        <v>687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.3">
@@ -18362,7 +18362,7 @@
         <v>688</v>
       </c>
       <c r="H689" s="1">
-        <v>688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.3">
@@ -18388,7 +18388,7 @@
         <v>689</v>
       </c>
       <c r="H690" s="1">
-        <v>689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.3">
@@ -18414,7 +18414,7 @@
         <v>690</v>
       </c>
       <c r="H691" s="1">
-        <v>690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.3">
@@ -18440,7 +18440,7 @@
         <v>691</v>
       </c>
       <c r="H692" s="1">
-        <v>691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.3">
@@ -18466,7 +18466,7 @@
         <v>692</v>
       </c>
       <c r="H693" s="1">
-        <v>692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.3">
@@ -18492,7 +18492,7 @@
         <v>693</v>
       </c>
       <c r="H694" s="1">
-        <v>693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.3">
@@ -18518,7 +18518,7 @@
         <v>694</v>
       </c>
       <c r="H695" s="1">
-        <v>694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.3">
@@ -18544,7 +18544,7 @@
         <v>695</v>
       </c>
       <c r="H696" s="1">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.3">
@@ -18570,7 +18570,7 @@
         <v>696</v>
       </c>
       <c r="H697" s="1">
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.3">
@@ -18596,7 +18596,7 @@
         <v>697</v>
       </c>
       <c r="H698" s="1">
-        <v>697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.3">
@@ -18622,7 +18622,7 @@
         <v>698</v>
       </c>
       <c r="H699" s="1">
-        <v>698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.3">
@@ -18648,7 +18648,7 @@
         <v>699</v>
       </c>
       <c r="H700" s="1">
-        <v>699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.3">
@@ -18674,7 +18674,7 @@
         <v>700</v>
       </c>
       <c r="H701" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.3">
@@ -18700,7 +18700,7 @@
         <v>701</v>
       </c>
       <c r="H702" s="1">
-        <v>701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.3">
@@ -18726,7 +18726,7 @@
         <v>702</v>
       </c>
       <c r="H703" s="1">
-        <v>702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.3">
@@ -18752,7 +18752,7 @@
         <v>703</v>
       </c>
       <c r="H704" s="1">
-        <v>703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.3">
@@ -18778,7 +18778,7 @@
         <v>704</v>
       </c>
       <c r="H705" s="1">
-        <v>704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.3">
@@ -18804,7 +18804,7 @@
         <v>705</v>
       </c>
       <c r="H706" s="1">
-        <v>705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.3">
@@ -18830,7 +18830,7 @@
         <v>706</v>
       </c>
       <c r="H707" s="1">
-        <v>706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.3">
@@ -18856,7 +18856,7 @@
         <v>707</v>
       </c>
       <c r="H708" s="1">
-        <v>707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.3">
@@ -18882,7 +18882,7 @@
         <v>708</v>
       </c>
       <c r="H709" s="1">
-        <v>708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.3">
@@ -18908,7 +18908,7 @@
         <v>709</v>
       </c>
       <c r="H710" s="1">
-        <v>709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.3">
@@ -18934,7 +18934,7 @@
         <v>710</v>
       </c>
       <c r="H711" s="1">
-        <v>710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.3">
@@ -18960,7 +18960,7 @@
         <v>711</v>
       </c>
       <c r="H712" s="1">
-        <v>711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.3">
@@ -18986,7 +18986,7 @@
         <v>712</v>
       </c>
       <c r="H713" s="1">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.3">
@@ -19012,7 +19012,7 @@
         <v>713</v>
       </c>
       <c r="H714" s="1">
-        <v>713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.3">
@@ -19038,7 +19038,7 @@
         <v>714</v>
       </c>
       <c r="H715" s="1">
-        <v>714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.3">
@@ -19064,7 +19064,7 @@
         <v>715</v>
       </c>
       <c r="H716" s="1">
-        <v>715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.3">
@@ -19090,7 +19090,7 @@
         <v>716</v>
       </c>
       <c r="H717" s="1">
-        <v>716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.3">
@@ -19116,7 +19116,7 @@
         <v>717</v>
       </c>
       <c r="H718" s="1">
-        <v>717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.3">
@@ -19142,7 +19142,7 @@
         <v>718</v>
       </c>
       <c r="H719" s="1">
-        <v>718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.3">
@@ -19168,7 +19168,7 @@
         <v>719</v>
       </c>
       <c r="H720" s="1">
-        <v>719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.3">
@@ -19194,7 +19194,7 @@
         <v>720</v>
       </c>
       <c r="H721" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.3">
@@ -19220,7 +19220,7 @@
         <v>721</v>
       </c>
       <c r="H722" s="1">
-        <v>721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.3">
@@ -19246,7 +19246,7 @@
         <v>722</v>
       </c>
       <c r="H723" s="1">
-        <v>722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.3">
@@ -19272,7 +19272,7 @@
         <v>723</v>
       </c>
       <c r="H724" s="1">
-        <v>723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.3">
@@ -19298,7 +19298,7 @@
         <v>724</v>
       </c>
       <c r="H725" s="1">
-        <v>724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.3">
@@ -19324,7 +19324,7 @@
         <v>725</v>
       </c>
       <c r="H726" s="1">
-        <v>725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.3">
@@ -19350,7 +19350,7 @@
         <v>726</v>
       </c>
       <c r="H727" s="1">
-        <v>726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.3">
@@ -19376,7 +19376,7 @@
         <v>727</v>
       </c>
       <c r="H728" s="1">
-        <v>727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.3">
@@ -19402,7 +19402,7 @@
         <v>728</v>
       </c>
       <c r="H729" s="1">
-        <v>728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.3">
@@ -19428,7 +19428,7 @@
         <v>729</v>
       </c>
       <c r="H730" s="1">
-        <v>729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.3">
@@ -19454,7 +19454,7 @@
         <v>730</v>
       </c>
       <c r="H731" s="1">
-        <v>730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.3">
@@ -19480,7 +19480,7 @@
         <v>731</v>
       </c>
       <c r="H732" s="1">
-        <v>731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.3">
@@ -19506,7 +19506,7 @@
         <v>732</v>
       </c>
       <c r="H733" s="1">
-        <v>732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.3">
@@ -19532,7 +19532,7 @@
         <v>733</v>
       </c>
       <c r="H734" s="1">
-        <v>733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.3">
@@ -19558,7 +19558,7 @@
         <v>734</v>
       </c>
       <c r="H735" s="1">
-        <v>734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.3">
@@ -19584,7 +19584,7 @@
         <v>735</v>
       </c>
       <c r="H736" s="1">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.3">
@@ -19610,7 +19610,7 @@
         <v>736</v>
       </c>
       <c r="H737" s="1">
-        <v>736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.3">
@@ -19636,7 +19636,7 @@
         <v>737</v>
       </c>
       <c r="H738" s="1">
-        <v>737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.3">
@@ -19662,7 +19662,7 @@
         <v>738</v>
       </c>
       <c r="H739" s="1">
-        <v>738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.3">
@@ -19688,7 +19688,7 @@
         <v>739</v>
       </c>
       <c r="H740" s="1">
-        <v>739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.3">
@@ -19714,7 +19714,7 @@
         <v>740</v>
       </c>
       <c r="H741" s="1">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.3">
@@ -19740,7 +19740,7 @@
         <v>741</v>
       </c>
       <c r="H742" s="1">
-        <v>741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.3">
@@ -19766,7 +19766,7 @@
         <v>742</v>
       </c>
       <c r="H743" s="1">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.3">
@@ -19792,7 +19792,7 @@
         <v>743</v>
       </c>
       <c r="H744" s="1">
-        <v>743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.3">
@@ -19818,7 +19818,7 @@
         <v>744</v>
       </c>
       <c r="H745" s="1">
-        <v>744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.3">
@@ -19844,7 +19844,7 @@
         <v>745</v>
       </c>
       <c r="H746" s="1">
-        <v>745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.3">
@@ -19870,7 +19870,7 @@
         <v>746</v>
       </c>
       <c r="H747" s="1">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.3">
@@ -19896,7 +19896,7 @@
         <v>747</v>
       </c>
       <c r="H748" s="1">
-        <v>747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.3">
@@ -19922,7 +19922,7 @@
         <v>748</v>
       </c>
       <c r="H749" s="1">
-        <v>748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.3">
@@ -19948,7 +19948,7 @@
         <v>749</v>
       </c>
       <c r="H750" s="1">
-        <v>749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.3">
@@ -19974,7 +19974,7 @@
         <v>750</v>
       </c>
       <c r="H751" s="1">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.3">
@@ -20000,7 +20000,7 @@
         <v>751</v>
       </c>
       <c r="H752" s="1">
-        <v>751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.3">
@@ -20026,7 +20026,7 @@
         <v>752</v>
       </c>
       <c r="H753" s="1">
-        <v>752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.3">
@@ -20052,7 +20052,7 @@
         <v>753</v>
       </c>
       <c r="H754" s="1">
-        <v>753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.3">
@@ -20078,7 +20078,7 @@
         <v>754</v>
       </c>
       <c r="H755" s="1">
-        <v>754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.3">
@@ -20104,7 +20104,7 @@
         <v>755</v>
       </c>
       <c r="H756" s="1">
-        <v>755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.3">
@@ -20130,7 +20130,7 @@
         <v>756</v>
       </c>
       <c r="H757" s="1">
-        <v>756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.3">
@@ -20156,7 +20156,7 @@
         <v>757</v>
       </c>
       <c r="H758" s="1">
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.3">
@@ -20182,7 +20182,7 @@
         <v>758</v>
       </c>
       <c r="H759" s="1">
-        <v>758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.3">
@@ -20208,7 +20208,7 @@
         <v>759</v>
       </c>
       <c r="H760" s="1">
-        <v>759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.3">
@@ -20234,7 +20234,7 @@
         <v>760</v>
       </c>
       <c r="H761" s="1">
-        <v>760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.3">
@@ -20260,7 +20260,7 @@
         <v>761</v>
       </c>
       <c r="H762" s="1">
-        <v>761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.3">
@@ -20286,7 +20286,7 @@
         <v>762</v>
       </c>
       <c r="H763" s="1">
-        <v>762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.3">
@@ -20312,7 +20312,7 @@
         <v>763</v>
       </c>
       <c r="H764" s="1">
-        <v>763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.3">
@@ -20338,7 +20338,7 @@
         <v>764</v>
       </c>
       <c r="H765" s="1">
-        <v>764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.3">
@@ -20364,7 +20364,7 @@
         <v>765</v>
       </c>
       <c r="H766" s="1">
-        <v>765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.3">
@@ -20390,7 +20390,7 @@
         <v>766</v>
       </c>
       <c r="H767" s="1">
-        <v>766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.3">
@@ -20416,7 +20416,7 @@
         <v>767</v>
       </c>
       <c r="H768" s="1">
-        <v>767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.3">
@@ -20442,7 +20442,7 @@
         <v>768</v>
       </c>
       <c r="H769" s="1">
-        <v>768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.3">
@@ -20468,7 +20468,7 @@
         <v>769</v>
       </c>
       <c r="H770" s="1">
-        <v>769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.3">
@@ -20494,7 +20494,7 @@
         <v>770</v>
       </c>
       <c r="H771" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.3">
@@ -20520,7 +20520,7 @@
         <v>771</v>
       </c>
       <c r="H772" s="1">
-        <v>771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.3">
@@ -20546,7 +20546,7 @@
         <v>772</v>
       </c>
       <c r="H773" s="1">
-        <v>772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.3">
@@ -20572,7 +20572,7 @@
         <v>773</v>
       </c>
       <c r="H774" s="1">
-        <v>773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.3">
@@ -20598,7 +20598,7 @@
         <v>774</v>
       </c>
       <c r="H775" s="1">
-        <v>774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.3">
@@ -20624,7 +20624,7 @@
         <v>775</v>
       </c>
       <c r="H776" s="1">
-        <v>775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.3">
@@ -20650,7 +20650,7 @@
         <v>776</v>
       </c>
       <c r="H777" s="1">
-        <v>776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.3">
@@ -20676,7 +20676,7 @@
         <v>777</v>
       </c>
       <c r="H778" s="1">
-        <v>777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.3">
@@ -20702,7 +20702,7 @@
         <v>778</v>
       </c>
       <c r="H779" s="1">
-        <v>778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.3">
@@ -20728,7 +20728,7 @@
         <v>779</v>
       </c>
       <c r="H780" s="1">
-        <v>779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.3">
@@ -20754,7 +20754,7 @@
         <v>780</v>
       </c>
       <c r="H781" s="1">
-        <v>780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.3">
@@ -20780,7 +20780,7 @@
         <v>781</v>
       </c>
       <c r="H782" s="1">
-        <v>781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.3">
@@ -20806,7 +20806,7 @@
         <v>782</v>
       </c>
       <c r="H783" s="1">
-        <v>782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.3">
@@ -20832,7 +20832,7 @@
         <v>783</v>
       </c>
       <c r="H784" s="1">
-        <v>783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.3">
@@ -20858,7 +20858,7 @@
         <v>784</v>
       </c>
       <c r="H785" s="1">
-        <v>784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.3">
@@ -20884,7 +20884,7 @@
         <v>785</v>
       </c>
       <c r="H786" s="1">
-        <v>785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.3">
@@ -20910,7 +20910,7 @@
         <v>786</v>
       </c>
       <c r="H787" s="1">
-        <v>786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.3">
@@ -20936,7 +20936,7 @@
         <v>787</v>
       </c>
       <c r="H788" s="1">
-        <v>787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.3">
@@ -20962,7 +20962,7 @@
         <v>788</v>
       </c>
       <c r="H789" s="1">
-        <v>788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.3">
@@ -20988,7 +20988,7 @@
         <v>789</v>
       </c>
       <c r="H790" s="1">
-        <v>789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.3">
@@ -21014,7 +21014,7 @@
         <v>790</v>
       </c>
       <c r="H791" s="1">
-        <v>790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.3">
@@ -21040,7 +21040,7 @@
         <v>791</v>
       </c>
       <c r="H792" s="1">
-        <v>791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.3">
@@ -21066,7 +21066,7 @@
         <v>792</v>
       </c>
       <c r="H793" s="1">
-        <v>792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.3">
@@ -21092,7 +21092,7 @@
         <v>793</v>
       </c>
       <c r="H794" s="1">
-        <v>793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.3">
@@ -21118,7 +21118,7 @@
         <v>794</v>
       </c>
       <c r="H795" s="1">
-        <v>794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.3">
@@ -21144,7 +21144,7 @@
         <v>795</v>
       </c>
       <c r="H796" s="1">
-        <v>795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.3">
@@ -21170,7 +21170,7 @@
         <v>796</v>
       </c>
       <c r="H797" s="1">
-        <v>796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.3">
@@ -21196,7 +21196,7 @@
         <v>797</v>
       </c>
       <c r="H798" s="1">
-        <v>797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.3">
@@ -21222,7 +21222,7 @@
         <v>798</v>
       </c>
       <c r="H799" s="1">
-        <v>798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.3">
@@ -21248,7 +21248,7 @@
         <v>799</v>
       </c>
       <c r="H800" s="1">
-        <v>799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.3">
@@ -21274,7 +21274,7 @@
         <v>800</v>
       </c>
       <c r="H801" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.3">
@@ -21300,7 +21300,7 @@
         <v>801</v>
       </c>
       <c r="H802" s="1">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.3">
@@ -21326,7 +21326,7 @@
         <v>802</v>
       </c>
       <c r="H803" s="1">
-        <v>802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.3">
@@ -21352,7 +21352,7 @@
         <v>803</v>
       </c>
       <c r="H804" s="1">
-        <v>803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.3">
@@ -21378,7 +21378,7 @@
         <v>804</v>
       </c>
       <c r="H805" s="1">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.3">
@@ -21404,7 +21404,7 @@
         <v>805</v>
       </c>
       <c r="H806" s="1">
-        <v>805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.3">
@@ -21430,7 +21430,7 @@
         <v>806</v>
       </c>
       <c r="H807" s="1">
-        <v>806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.3">
@@ -21456,7 +21456,7 @@
         <v>807</v>
       </c>
       <c r="H808" s="1">
-        <v>807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.3">
@@ -21482,7 +21482,7 @@
         <v>808</v>
       </c>
       <c r="H809" s="1">
-        <v>808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.3">
@@ -21508,7 +21508,7 @@
         <v>809</v>
       </c>
       <c r="H810" s="1">
-        <v>809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.3">
@@ -21534,7 +21534,7 @@
         <v>810</v>
       </c>
       <c r="H811" s="1">
-        <v>810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.3">
@@ -21560,7 +21560,7 @@
         <v>811</v>
       </c>
       <c r="H812" s="1">
-        <v>811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.3">
@@ -21586,7 +21586,7 @@
         <v>812</v>
       </c>
       <c r="H813" s="1">
-        <v>812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.3">
@@ -21612,7 +21612,7 @@
         <v>813</v>
       </c>
       <c r="H814" s="1">
-        <v>813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.3">
@@ -21638,7 +21638,7 @@
         <v>814</v>
       </c>
       <c r="H815" s="1">
-        <v>814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.3">
@@ -21664,7 +21664,7 @@
         <v>815</v>
       </c>
       <c r="H816" s="1">
-        <v>815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.3">
@@ -21690,7 +21690,7 @@
         <v>816</v>
       </c>
       <c r="H817" s="1">
-        <v>816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.3">
@@ -21716,7 +21716,7 @@
         <v>817</v>
       </c>
       <c r="H818" s="1">
-        <v>817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.3">
@@ -21742,7 +21742,7 @@
         <v>818</v>
       </c>
       <c r="H819" s="1">
-        <v>818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.3">
@@ -21768,7 +21768,7 @@
         <v>819</v>
       </c>
       <c r="H820" s="1">
-        <v>819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.3">
@@ -21794,7 +21794,7 @@
         <v>820</v>
       </c>
       <c r="H821" s="1">
-        <v>820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.3">
@@ -21820,7 +21820,7 @@
         <v>821</v>
       </c>
       <c r="H822" s="1">
-        <v>821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.3">
@@ -21846,7 +21846,7 @@
         <v>822</v>
       </c>
       <c r="H823" s="1">
-        <v>822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.3">
@@ -21872,7 +21872,7 @@
         <v>823</v>
       </c>
       <c r="H824" s="1">
-        <v>823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.3">
@@ -21898,7 +21898,7 @@
         <v>824</v>
       </c>
       <c r="H825" s="1">
-        <v>824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.3">
@@ -21924,7 +21924,7 @@
         <v>825</v>
       </c>
       <c r="H826" s="1">
-        <v>825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.3">
@@ -21950,7 +21950,7 @@
         <v>826</v>
       </c>
       <c r="H827" s="1">
-        <v>826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.3">
@@ -21976,7 +21976,7 @@
         <v>827</v>
       </c>
       <c r="H828" s="1">
-        <v>827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.3">
@@ -22002,7 +22002,7 @@
         <v>828</v>
       </c>
       <c r="H829" s="1">
-        <v>828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.3">
@@ -22028,7 +22028,7 @@
         <v>829</v>
       </c>
       <c r="H830" s="1">
-        <v>829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.3">
@@ -22054,7 +22054,7 @@
         <v>830</v>
       </c>
       <c r="H831" s="1">
-        <v>830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.3">
@@ -22080,7 +22080,7 @@
         <v>831</v>
       </c>
       <c r="H832" s="1">
-        <v>831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.3">
@@ -22106,7 +22106,7 @@
         <v>832</v>
       </c>
       <c r="H833" s="1">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.3">
@@ -22132,7 +22132,7 @@
         <v>833</v>
       </c>
       <c r="H834" s="1">
-        <v>833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.3">
@@ -22158,7 +22158,7 @@
         <v>834</v>
       </c>
       <c r="H835" s="1">
-        <v>834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.3">
@@ -22184,7 +22184,7 @@
         <v>835</v>
       </c>
       <c r="H836" s="1">
-        <v>835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.3">
@@ -22210,7 +22210,7 @@
         <v>836</v>
       </c>
       <c r="H837" s="1">
-        <v>836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.3">
@@ -22236,7 +22236,7 @@
         <v>837</v>
       </c>
       <c r="H838" s="1">
-        <v>837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.3">
@@ -22262,7 +22262,7 @@
         <v>838</v>
       </c>
       <c r="H839" s="1">
-        <v>838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.3">
@@ -22288,7 +22288,7 @@
         <v>839</v>
       </c>
       <c r="H840" s="1">
-        <v>839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.3">
@@ -22314,7 +22314,7 @@
         <v>840</v>
       </c>
       <c r="H841" s="1">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.3">
@@ -22340,7 +22340,7 @@
         <v>841</v>
       </c>
       <c r="H842" s="1">
-        <v>841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.3">
@@ -22366,7 +22366,7 @@
         <v>842</v>
       </c>
       <c r="H843" s="1">
-        <v>842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.3">
@@ -22392,7 +22392,7 @@
         <v>843</v>
       </c>
       <c r="H844" s="1">
-        <v>843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.3">
@@ -22418,7 +22418,7 @@
         <v>844</v>
       </c>
       <c r="H845" s="1">
-        <v>844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.3">
@@ -22444,7 +22444,7 @@
         <v>845</v>
       </c>
       <c r="H846" s="1">
-        <v>845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.3">
@@ -22470,7 +22470,7 @@
         <v>846</v>
       </c>
       <c r="H847" s="1">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.3">
@@ -22496,7 +22496,7 @@
         <v>847</v>
       </c>
       <c r="H848" s="1">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.3">
@@ -22522,7 +22522,7 @@
         <v>848</v>
       </c>
       <c r="H849" s="1">
-        <v>848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.3">
@@ -22548,7 +22548,7 @@
         <v>849</v>
       </c>
       <c r="H850" s="1">
-        <v>849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.3">
@@ -22574,7 +22574,7 @@
         <v>850</v>
       </c>
       <c r="H851" s="1">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.3">
@@ -22600,7 +22600,7 @@
         <v>851</v>
       </c>
       <c r="H852" s="1">
-        <v>851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.3">
@@ -22626,7 +22626,7 @@
         <v>852</v>
       </c>
       <c r="H853" s="1">
-        <v>852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.3">
@@ -22652,7 +22652,7 @@
         <v>853</v>
       </c>
       <c r="H854" s="1">
-        <v>853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.3">
@@ -22678,7 +22678,7 @@
         <v>854</v>
       </c>
       <c r="H855" s="1">
-        <v>854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.3">
@@ -22704,7 +22704,7 @@
         <v>855</v>
       </c>
       <c r="H856" s="1">
-        <v>855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.3">
@@ -22730,7 +22730,7 @@
         <v>856</v>
       </c>
       <c r="H857" s="1">
-        <v>856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.3">
@@ -22756,7 +22756,7 @@
         <v>857</v>
       </c>
       <c r="H858" s="1">
-        <v>857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.3">
@@ -22782,7 +22782,7 @@
         <v>858</v>
       </c>
       <c r="H859" s="1">
-        <v>858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.3">
@@ -22808,7 +22808,7 @@
         <v>859</v>
       </c>
       <c r="H860" s="1">
-        <v>859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.3">
@@ -22834,7 +22834,7 @@
         <v>860</v>
       </c>
       <c r="H861" s="1">
-        <v>860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.3">
@@ -22860,7 +22860,7 @@
         <v>861</v>
       </c>
       <c r="H862" s="1">
-        <v>861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.3">
@@ -22886,7 +22886,7 @@
         <v>862</v>
       </c>
       <c r="H863" s="1">
-        <v>862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.3">
@@ -22912,7 +22912,7 @@
         <v>863</v>
       </c>
       <c r="H864" s="1">
-        <v>863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.3">
@@ -22938,7 +22938,7 @@
         <v>864</v>
       </c>
       <c r="H865" s="1">
-        <v>864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.3">
@@ -22964,7 +22964,7 @@
         <v>865</v>
       </c>
       <c r="H866" s="1">
-        <v>865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.3">
@@ -22990,7 +22990,7 @@
         <v>866</v>
       </c>
       <c r="H867" s="1">
-        <v>866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.3">
@@ -23016,7 +23016,7 @@
         <v>867</v>
       </c>
       <c r="H868" s="1">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.3">
@@ -23042,7 +23042,7 @@
         <v>868</v>
       </c>
       <c r="H869" s="1">
-        <v>868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.3">
@@ -23068,7 +23068,7 @@
         <v>869</v>
       </c>
       <c r="H870" s="1">
-        <v>869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.3">
@@ -23094,7 +23094,7 @@
         <v>870</v>
       </c>
       <c r="H871" s="1">
-        <v>870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.3">
@@ -23120,7 +23120,7 @@
         <v>871</v>
       </c>
       <c r="H872" s="1">
-        <v>871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.3">
@@ -23146,7 +23146,7 @@
         <v>872</v>
       </c>
       <c r="H873" s="1">
-        <v>872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.3">
@@ -23172,7 +23172,7 @@
         <v>873</v>
       </c>
       <c r="H874" s="1">
-        <v>873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.3">
@@ -23198,7 +23198,7 @@
         <v>874</v>
       </c>
       <c r="H875" s="1">
-        <v>874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.3">
@@ -23224,7 +23224,7 @@
         <v>875</v>
       </c>
       <c r="H876" s="1">
-        <v>875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.3">
@@ -23250,7 +23250,7 @@
         <v>876</v>
       </c>
       <c r="H877" s="1">
-        <v>876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.3">
@@ -23276,7 +23276,7 @@
         <v>877</v>
       </c>
       <c r="H878" s="1">
-        <v>877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.3">
@@ -23302,7 +23302,7 @@
         <v>878</v>
       </c>
       <c r="H879" s="1">
-        <v>878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.3">
@@ -23328,7 +23328,7 @@
         <v>879</v>
       </c>
       <c r="H880" s="1">
-        <v>879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.3">
@@ -23354,7 +23354,7 @@
         <v>880</v>
       </c>
       <c r="H881" s="1">
-        <v>880</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.3">
@@ -23380,7 +23380,7 @@
         <v>881</v>
       </c>
       <c r="H882" s="1">
-        <v>881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.3">
@@ -23406,7 +23406,7 @@
         <v>882</v>
       </c>
       <c r="H883" s="1">
-        <v>882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.3">
@@ -23432,7 +23432,7 @@
         <v>883</v>
       </c>
       <c r="H884" s="1">
-        <v>883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.3">
@@ -23458,7 +23458,7 @@
         <v>884</v>
       </c>
       <c r="H885" s="1">
-        <v>884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.3">
@@ -23484,7 +23484,7 @@
         <v>885</v>
       </c>
       <c r="H886" s="1">
-        <v>885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.3">
@@ -23510,7 +23510,7 @@
         <v>886</v>
       </c>
       <c r="H887" s="1">
-        <v>886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.3">
@@ -23536,7 +23536,7 @@
         <v>887</v>
       </c>
       <c r="H888" s="1">
-        <v>887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.3">
@@ -23562,7 +23562,7 @@
         <v>888</v>
       </c>
       <c r="H889" s="1">
-        <v>888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.3">
@@ -23588,7 +23588,7 @@
         <v>889</v>
       </c>
       <c r="H890" s="1">
-        <v>889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.3">
@@ -23614,7 +23614,7 @@
         <v>890</v>
       </c>
       <c r="H891" s="1">
-        <v>890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.3">
@@ -23640,7 +23640,7 @@
         <v>891</v>
       </c>
       <c r="H892" s="1">
-        <v>891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.3">
@@ -23666,7 +23666,7 @@
         <v>892</v>
       </c>
       <c r="H893" s="1">
-        <v>892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.3">
@@ -23692,7 +23692,7 @@
         <v>893</v>
       </c>
       <c r="H894" s="1">
-        <v>893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.3">
@@ -23718,7 +23718,7 @@
         <v>894</v>
       </c>
       <c r="H895" s="1">
-        <v>894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.3">
@@ -23744,7 +23744,7 @@
         <v>895</v>
       </c>
       <c r="H896" s="1">
-        <v>895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.3">
@@ -23770,7 +23770,7 @@
         <v>896</v>
       </c>
       <c r="H897" s="1">
-        <v>896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.3">
@@ -23796,7 +23796,7 @@
         <v>897</v>
       </c>
       <c r="H898" s="1">
-        <v>897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.3">
@@ -23822,7 +23822,7 @@
         <v>898</v>
       </c>
       <c r="H899" s="1">
-        <v>898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.3">
@@ -23848,7 +23848,7 @@
         <v>899</v>
       </c>
       <c r="H900" s="1">
-        <v>899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.3">
@@ -23874,7 +23874,7 @@
         <v>900</v>
       </c>
       <c r="H901" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.3">
@@ -23900,7 +23900,7 @@
         <v>901</v>
       </c>
       <c r="H902" s="1">
-        <v>901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.3">
@@ -23926,7 +23926,7 @@
         <v>902</v>
       </c>
       <c r="H903" s="1">
-        <v>902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.3">
@@ -23952,7 +23952,7 @@
         <v>903</v>
       </c>
       <c r="H904" s="1">
-        <v>903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.3">
@@ -23978,7 +23978,7 @@
         <v>904</v>
       </c>
       <c r="H905" s="1">
-        <v>904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.3">
@@ -24004,7 +24004,7 @@
         <v>905</v>
       </c>
       <c r="H906" s="1">
-        <v>905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.3">
@@ -24030,7 +24030,7 @@
         <v>906</v>
       </c>
       <c r="H907" s="1">
-        <v>906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.3">
@@ -24056,7 +24056,7 @@
         <v>907</v>
       </c>
       <c r="H908" s="1">
-        <v>907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.3">
@@ -24082,7 +24082,7 @@
         <v>908</v>
       </c>
       <c r="H909" s="1">
-        <v>908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.3">
@@ -24108,7 +24108,7 @@
         <v>909</v>
       </c>
       <c r="H910" s="1">
-        <v>909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.3">
@@ -24134,7 +24134,7 @@
         <v>910</v>
       </c>
       <c r="H911" s="1">
-        <v>910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.3">
@@ -24160,7 +24160,7 @@
         <v>911</v>
       </c>
       <c r="H912" s="1">
-        <v>911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.3">
@@ -24186,7 +24186,7 @@
         <v>912</v>
       </c>
       <c r="H913" s="1">
-        <v>912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.3">
@@ -24212,7 +24212,7 @@
         <v>913</v>
       </c>
       <c r="H914" s="1">
-        <v>913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.3">
@@ -24238,7 +24238,7 @@
         <v>914</v>
       </c>
       <c r="H915" s="1">
-        <v>914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.3">
@@ -24264,7 +24264,7 @@
         <v>915</v>
       </c>
       <c r="H916" s="1">
-        <v>915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.3">
@@ -24290,7 +24290,7 @@
         <v>916</v>
       </c>
       <c r="H917" s="1">
-        <v>916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.3">
@@ -24316,7 +24316,7 @@
         <v>917</v>
       </c>
       <c r="H918" s="1">
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.3">
@@ -24342,7 +24342,7 @@
         <v>918</v>
       </c>
       <c r="H919" s="1">
-        <v>918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.3">
@@ -24368,7 +24368,7 @@
         <v>919</v>
       </c>
       <c r="H920" s="1">
-        <v>919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.3">
@@ -24394,7 +24394,7 @@
         <v>920</v>
       </c>
       <c r="H921" s="1">
-        <v>920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.3">
@@ -24420,7 +24420,7 @@
         <v>921</v>
       </c>
       <c r="H922" s="1">
-        <v>921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.3">
@@ -24446,7 +24446,7 @@
         <v>922</v>
       </c>
       <c r="H923" s="1">
-        <v>922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.3">
@@ -24472,7 +24472,7 @@
         <v>923</v>
       </c>
       <c r="H924" s="1">
-        <v>923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.3">
@@ -24498,7 +24498,7 @@
         <v>924</v>
       </c>
       <c r="H925" s="1">
-        <v>924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.3">
@@ -24524,7 +24524,7 @@
         <v>925</v>
       </c>
       <c r="H926" s="1">
-        <v>925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.3">
@@ -24550,7 +24550,7 @@
         <v>926</v>
       </c>
       <c r="H927" s="1">
-        <v>926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.3">
@@ -24576,7 +24576,7 @@
         <v>927</v>
       </c>
       <c r="H928" s="1">
-        <v>927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.3">
@@ -24602,7 +24602,7 @@
         <v>928</v>
       </c>
       <c r="H929" s="1">
-        <v>928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.3">
@@ -24628,7 +24628,7 @@
         <v>929</v>
       </c>
       <c r="H930" s="1">
-        <v>929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.3">
@@ -24654,7 +24654,7 @@
         <v>930</v>
       </c>
       <c r="H931" s="1">
-        <v>930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.3">
@@ -24680,7 +24680,7 @@
         <v>931</v>
       </c>
       <c r="H932" s="1">
-        <v>931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.3">
@@ -24706,7 +24706,7 @@
         <v>932</v>
       </c>
       <c r="H933" s="1">
-        <v>932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.3">
@@ -24732,7 +24732,7 @@
         <v>933</v>
       </c>
       <c r="H934" s="1">
-        <v>933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.3">
@@ -24758,7 +24758,7 @@
         <v>934</v>
       </c>
       <c r="H935" s="1">
-        <v>934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.3">
@@ -24784,7 +24784,7 @@
         <v>935</v>
       </c>
       <c r="H936" s="1">
-        <v>935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.3">
@@ -24810,7 +24810,7 @@
         <v>936</v>
       </c>
       <c r="H937" s="1">
-        <v>936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.3">
@@ -24836,7 +24836,7 @@
         <v>937</v>
       </c>
       <c r="H938" s="1">
-        <v>937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.3">
@@ -24862,7 +24862,7 @@
         <v>938</v>
       </c>
       <c r="H939" s="1">
-        <v>938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.3">
@@ -24888,7 +24888,7 @@
         <v>939</v>
       </c>
       <c r="H940" s="1">
-        <v>939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.3">
@@ -24914,7 +24914,7 @@
         <v>940</v>
       </c>
       <c r="H941" s="1">
-        <v>940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.3">
@@ -24940,7 +24940,7 @@
         <v>941</v>
       </c>
       <c r="H942" s="1">
-        <v>941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.3">
@@ -24966,7 +24966,7 @@
         <v>942</v>
       </c>
       <c r="H943" s="1">
-        <v>942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.3">
@@ -24992,7 +24992,7 @@
         <v>943</v>
       </c>
       <c r="H944" s="1">
-        <v>943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.3">
@@ -25018,7 +25018,7 @@
         <v>944</v>
       </c>
       <c r="H945" s="1">
-        <v>944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.3">
@@ -25044,7 +25044,7 @@
         <v>945</v>
       </c>
       <c r="H946" s="1">
-        <v>945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.3">
@@ -25070,7 +25070,7 @@
         <v>946</v>
       </c>
       <c r="H947" s="1">
-        <v>946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.3">
@@ -25096,7 +25096,7 @@
         <v>947</v>
       </c>
       <c r="H948" s="1">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.3">
@@ -25122,7 +25122,7 @@
         <v>948</v>
       </c>
       <c r="H949" s="1">
-        <v>948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.3">
@@ -25148,7 +25148,7 @@
         <v>949</v>
       </c>
       <c r="H950" s="1">
-        <v>949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.3">
@@ -25174,7 +25174,7 @@
         <v>950</v>
       </c>
       <c r="H951" s="1">
-        <v>950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.3">
@@ -25200,7 +25200,7 @@
         <v>951</v>
       </c>
       <c r="H952" s="1">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.3">
@@ -25226,7 +25226,7 @@
         <v>952</v>
       </c>
       <c r="H953" s="1">
-        <v>952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.3">
@@ -25252,7 +25252,7 @@
         <v>953</v>
       </c>
       <c r="H954" s="1">
-        <v>953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.3">
@@ -25278,7 +25278,7 @@
         <v>954</v>
       </c>
       <c r="H955" s="1">
-        <v>954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.3">
@@ -25304,7 +25304,7 @@
         <v>955</v>
       </c>
       <c r="H956" s="1">
-        <v>955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.3">
@@ -25330,7 +25330,7 @@
         <v>956</v>
       </c>
       <c r="H957" s="1">
-        <v>956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.3">
@@ -25356,7 +25356,7 @@
         <v>957</v>
       </c>
       <c r="H958" s="1">
-        <v>957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.3">
@@ -25382,7 +25382,7 @@
         <v>958</v>
       </c>
       <c r="H959" s="1">
-        <v>958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.3">
@@ -25408,7 +25408,7 @@
         <v>959</v>
       </c>
       <c r="H960" s="1">
-        <v>959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.3">
@@ -25434,7 +25434,7 @@
         <v>960</v>
       </c>
       <c r="H961" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.3">
@@ -25460,7 +25460,7 @@
         <v>961</v>
       </c>
       <c r="H962" s="1">
-        <v>961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.3">
@@ -25486,7 +25486,7 @@
         <v>962</v>
       </c>
       <c r="H963" s="1">
-        <v>962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.3">
@@ -25512,7 +25512,7 @@
         <v>963</v>
       </c>
       <c r="H964" s="1">
-        <v>963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.3">
@@ -25538,7 +25538,7 @@
         <v>964</v>
       </c>
       <c r="H965" s="1">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.3">
@@ -25564,7 +25564,7 @@
         <v>965</v>
       </c>
       <c r="H966" s="1">
-        <v>965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.3">
@@ -25590,7 +25590,7 @@
         <v>966</v>
       </c>
       <c r="H967" s="1">
-        <v>966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.3">
@@ -25616,7 +25616,7 @@
         <v>967</v>
       </c>
       <c r="H968" s="1">
-        <v>967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.3">
@@ -25642,7 +25642,7 @@
         <v>968</v>
       </c>
       <c r="H969" s="1">
-        <v>968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.3">
@@ -25668,7 +25668,7 @@
         <v>969</v>
       </c>
       <c r="H970" s="1">
-        <v>969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.3">
@@ -25694,7 +25694,7 @@
         <v>970</v>
       </c>
       <c r="H971" s="1">
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.3">
@@ -25720,7 +25720,7 @@
         <v>971</v>
       </c>
       <c r="H972" s="1">
-        <v>971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.3">
@@ -25746,7 +25746,7 @@
         <v>972</v>
       </c>
       <c r="H973" s="1">
-        <v>972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.3">
@@ -25772,7 +25772,7 @@
         <v>973</v>
       </c>
       <c r="H974" s="1">
-        <v>973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.3">
@@ -25798,7 +25798,7 @@
         <v>974</v>
       </c>
       <c r="H975" s="1">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.3">
@@ -25824,7 +25824,7 @@
         <v>975</v>
       </c>
       <c r="H976" s="1">
-        <v>975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.3">
@@ -25850,7 +25850,7 @@
         <v>976</v>
       </c>
       <c r="H977" s="1">
-        <v>976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.3">
@@ -25876,7 +25876,7 @@
         <v>977</v>
       </c>
       <c r="H978" s="1">
-        <v>977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.3">
@@ -25902,7 +25902,7 @@
         <v>978</v>
       </c>
       <c r="H979" s="1">
-        <v>978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.3">
@@ -25928,7 +25928,7 @@
         <v>979</v>
       </c>
       <c r="H980" s="1">
-        <v>979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.3">
@@ -25954,7 +25954,7 @@
         <v>980</v>
       </c>
       <c r="H981" s="1">
-        <v>980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.3">
@@ -25980,7 +25980,7 @@
         <v>981</v>
       </c>
       <c r="H982" s="1">
-        <v>981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.3">
@@ -26006,7 +26006,7 @@
         <v>982</v>
       </c>
       <c r="H983" s="1">
-        <v>982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.3">
@@ -26032,7 +26032,7 @@
         <v>983</v>
       </c>
       <c r="H984" s="1">
-        <v>983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.3">
@@ -26058,7 +26058,7 @@
         <v>984</v>
       </c>
       <c r="H985" s="1">
-        <v>984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.3">
@@ -26084,7 +26084,7 @@
         <v>985</v>
       </c>
       <c r="H986" s="1">
-        <v>985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.3">
@@ -26110,7 +26110,7 @@
         <v>986</v>
       </c>
       <c r="H987" s="1">
-        <v>986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.3">
@@ -26136,7 +26136,7 @@
         <v>987</v>
       </c>
       <c r="H988" s="1">
-        <v>987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.3">
@@ -26162,7 +26162,7 @@
         <v>988</v>
       </c>
       <c r="H989" s="1">
-        <v>988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.3">
@@ -26188,7 +26188,7 @@
         <v>989</v>
       </c>
       <c r="H990" s="1">
-        <v>989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.3">
@@ -26214,7 +26214,7 @@
         <v>990</v>
       </c>
       <c r="H991" s="1">
-        <v>990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.3">
@@ -26240,7 +26240,7 @@
         <v>991</v>
       </c>
       <c r="H992" s="1">
-        <v>991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.3">
@@ -26266,7 +26266,7 @@
         <v>992</v>
       </c>
       <c r="H993" s="1">
-        <v>992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.3">
@@ -26292,7 +26292,7 @@
         <v>993</v>
       </c>
       <c r="H994" s="1">
-        <v>993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.3">
@@ -26318,7 +26318,7 @@
         <v>994</v>
       </c>
       <c r="H995" s="1">
-        <v>994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.3">
@@ -26344,7 +26344,7 @@
         <v>995</v>
       </c>
       <c r="H996" s="1">
-        <v>995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.3">
@@ -26370,7 +26370,7 @@
         <v>996</v>
       </c>
       <c r="H997" s="1">
-        <v>996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.3">
@@ -26396,7 +26396,7 @@
         <v>997</v>
       </c>
       <c r="H998" s="1">
-        <v>997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.3">
@@ -26422,7 +26422,7 @@
         <v>998</v>
       </c>
       <c r="H999" s="1">
-        <v>998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
@@ -26448,7 +26448,7 @@
         <v>999</v>
       </c>
       <c r="H1000" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
@@ -26474,7 +26474,7 @@
         <v>1000</v>
       </c>
       <c r="H1001" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
